--- a/AngularMaterial/progress.xlsx
+++ b/AngularMaterial/progress.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\javawork\Angular-Material-Translation-CN\AngularMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -227,8 +227,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -517,7 +520,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -544,7 +547,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B2" t="s">
@@ -552,31 +555,31 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B7" t="s">
@@ -585,54 +588,60 @@
       <c r="C7" t="s">
         <v>44</v>
       </c>
+      <c r="D7" s="1">
+        <v>42934</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>44</v>
       </c>
+      <c r="D8" s="1">
+        <v>42934</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2"/>
       <c r="B13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2"/>
       <c r="B14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
@@ -640,19 +649,19 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2"/>
       <c r="B16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
+      <c r="A17" s="2"/>
       <c r="B17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B18" t="s">
@@ -660,25 +669,25 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2"/>
       <c r="B19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2"/>
       <c r="B20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2"/>
       <c r="B21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B22" t="s">
@@ -686,37 +695,37 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
+      <c r="A23" s="2"/>
       <c r="B23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
+      <c r="A24" s="2"/>
       <c r="B24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
+      <c r="A25" s="2"/>
       <c r="B25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
+      <c r="A26" s="2"/>
       <c r="B26" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
+      <c r="A27" s="2"/>
       <c r="B27" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
@@ -724,19 +733,19 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
+      <c r="A29" s="2"/>
       <c r="B29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
+      <c r="A30" s="2"/>
       <c r="B30" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
@@ -744,26 +753,26 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="1"/>
+      <c r="A32" s="2"/>
       <c r="B32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="1"/>
+      <c r="A33" s="2"/>
       <c r="B33" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AngularMaterial/progress.xlsx
+++ b/AngularMaterial/progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Autocomplete</t>
   </si>
@@ -177,6 +177,10 @@
   </si>
   <si>
     <t>CDK data-table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zeoly</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -520,7 +524,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -614,6 +618,9 @@
       <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
